--- a/test/out/style2.xlsx
+++ b/test/out/style2.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -48,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +73,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF22FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA000"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,13 +100,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,7 +452,9 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4"/>
+      <c r="A4" s="4">
+        <v>39904.166666666664</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -450,7 +466,9 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5"/>
+      <c r="A5" s="5">
+        <v>39904.166666666664</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>

--- a/test/out/style2.xlsx
+++ b/test/out/style2.xlsx
@@ -34,7 +34,7 @@
   <fonts count="2">
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,17 +101,17 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/test/out/style2.xlsx
+++ b/test/out/style2.xlsx
@@ -42,6 +42,10 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <strike/>
+      <outline/>
+      <shadow/>
       <sz val="32"/>
       <color rgb="FF0022FF"/>
       <name val="Verdana"/>

--- a/test/out/style2.xlsx
+++ b/test/out/style2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -42,10 +42,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
-      <strike/>
-      <outline/>
-      <shadow/>
       <sz val="32"/>
       <color rgb="FF0022FF"/>
       <name val="Verdana"/>
@@ -107,7 +103,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyNumberFormat="1"/>
